--- a/public/files/Table/excel/通知公告.xlsx
+++ b/public/files/Table/excel/通知公告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>id</t>
   </si>
@@ -100,19 +100,583 @@
     <t/>
   </si>
   <si>
+    <t>集团总部2019年元旦假期值班表</t>
+  </si>
+  <si>
+    <t>党委办公室\集团办公室</t>
+  </si>
+  <si>
+    <t>郑琨</t>
+  </si>
+  <si>
+    <t>2018-12-28 13:3:37</t>
+  </si>
+  <si>
+    <t>通知公告</t>
+  </si>
+  <si>
     <t>出访报告公示</t>
   </si>
   <si>
-    <t>党委办公室\集团办公室</t>
-  </si>
-  <si>
-    <t>郑琨</t>
+    <t xml:space="preserve">2018-12-28 13:3:16 </t>
+  </si>
+  <si>
+    <t>关于做好2019年元旦期间集团有关工作的通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-23 10:31:10 </t>
+  </si>
+  <si>
+    <t>关于开展纪念改革开放40周年征文活动的通知</t>
+  </si>
+  <si>
+    <t>宣传部\品牌管理部</t>
+  </si>
+  <si>
+    <t>梁晓雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-21 17:58:28 </t>
+  </si>
+  <si>
+    <t>关于基层党组织负责人述职暨年度工作汇报会安排的通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-18 15:42:41 </t>
+  </si>
+  <si>
+    <t>关于报送2019年集团子公司组团出国(境)计划的通知(下发)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-17 14:22:30 </t>
+  </si>
+  <si>
+    <t>关于做好2019年度集团总部预算和工作计划编制工作的通知</t>
+  </si>
+  <si>
+    <t>资金财务部</t>
+  </si>
+  <si>
+    <t>侯珏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-07 15:41:43 </t>
+  </si>
+  <si>
+    <t>关于报销集团2018年度内部补充医疗费用的通知</t>
+  </si>
+  <si>
+    <t>关于报销集团2018年度内部补充医疗费用的通知、附件1、附件2、附件3</t>
+  </si>
+  <si>
+    <t>组织部\人力资源部</t>
+  </si>
+  <si>
+    <t>唐中正</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-04 18:39:11 </t>
+  </si>
+  <si>
+    <t>【重要】年终财务结账时间通知</t>
+  </si>
+  <si>
+    <t>张宁昕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-04 18:9:0 </t>
+  </si>
+  <si>
+    <t>关于落实中央八项规定精神 打好作风建设持久战的通知</t>
+  </si>
+  <si>
+    <t>纪检监察部</t>
+  </si>
+  <si>
+    <t>于星</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-04 17:5:4 </t>
+  </si>
+  <si>
+    <t>关于提交2018年考核工作相关文件的通知</t>
+  </si>
+  <si>
+    <t>关于提交2018年考核工作相关文件的通知、附件1.子公司2018年度绩效考核责任书完成情况模板、附件2.集团子公司工资总额核定相关信息统计表、附件3跨板块推荐项目表、附件4中关村发展集团2018年度总经理特别奖奖励事项表</t>
+  </si>
+  <si>
+    <t>战略管理部</t>
+  </si>
+  <si>
+    <t>孙乐乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-03 18:46:43 </t>
+  </si>
+  <si>
+    <t>2018年中关村发展集团办公系统工作会方案（发各部室 子公司）</t>
+  </si>
+  <si>
+    <t>2018年中关村发展集团办公系统工作会方案（发各部室 子公司）、办公室系统会参会回执</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-03 16:49:32 </t>
+  </si>
+  <si>
+    <t>关于报送2018年意识形态工作情况报告的通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-29 18:9:8 </t>
+  </si>
+  <si>
+    <t>中关村发展集团办公室关于开展2019年信息化工作的通知</t>
+  </si>
+  <si>
+    <t>杨静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-29 17:0:38 </t>
+  </si>
+  <si>
+    <t>关于开展2018年末工作总结的通知</t>
+  </si>
+  <si>
+    <t>关于开展2018年末工作总结的通知、附件1 各部室、附件2各子公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-23 9:57:6 </t>
+  </si>
+  <si>
+    <t>关于集团总部2018-2019年度采暖季取暖补贴报销事宜的通知</t>
+  </si>
+  <si>
+    <t>2018-11-07 20:37:24</t>
+  </si>
+  <si>
+    <t>关于各部室、各子公司组织参加2018年中关村论坛的通知</t>
+  </si>
+  <si>
+    <t>关于组织参加2018年中关村论坛的通知</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:55:46</t>
+  </si>
+  <si>
+    <t>中关村发展集团办公室关于加强各部室主要负责人因公离京外出报备工作的通知</t>
+  </si>
+  <si>
+    <t>2018-10-29 18:21:24</t>
+  </si>
+  <si>
+    <t>集团总部2018年国庆假期值班表</t>
+  </si>
+  <si>
+    <t>2018-09-29 16:44:26</t>
+  </si>
+  <si>
+    <t>中关村发展集团党组织书记和纪检监察干部专题培训通知</t>
+  </si>
+  <si>
+    <t>孙齐</t>
+  </si>
+  <si>
+    <t>2018-09-28 16:53:9</t>
+  </si>
+  <si>
+    <t>中关村发展集团纪委关于转发中共北京市纪委近期查处违反中央八项规定精神问题典型案例的通报</t>
+  </si>
+  <si>
+    <t>2018-09-21 15:18:49</t>
+  </si>
+  <si>
+    <t>集团赴香港团组出访报告</t>
+  </si>
+  <si>
+    <t>王宁</t>
+  </si>
+  <si>
+    <t>2018-09-20 10:20:27</t>
+  </si>
+  <si>
+    <t>关于集团公开招标遴选券商机构备选库结果的通知</t>
+  </si>
+  <si>
+    <t>资本运营部</t>
+  </si>
+  <si>
+    <t>董晓宇</t>
+  </si>
+  <si>
+    <t>2018-09-17 15:47:28</t>
+  </si>
+  <si>
+    <t>集团总部2018年中秋假期值班表</t>
+  </si>
+  <si>
+    <t>2018-09-14 15:34:2</t>
+  </si>
+  <si>
+    <t>关于做好2018年“中秋”“国庆”期间集团有关工作的通知</t>
+  </si>
+  <si>
+    <t>关于做好2018年“中秋”“国庆”期间集团有关工作的通知、集团子公司2018年中秋国庆假期值班安排表</t>
+  </si>
+  <si>
+    <t>2018-09-12 15:29:58</t>
+  </si>
+  <si>
+    <t>关于《中关村发展集团违规经营投资责任追究暂行办法》（草案征求意见稿）公开征求意见的通知</t>
+  </si>
+  <si>
+    <t>中关村发展集团违规经营投资责任追究暂行办法（征求意见稿）</t>
+  </si>
+  <si>
+    <t>风险管理部</t>
+  </si>
+  <si>
+    <t>汤滢</t>
+  </si>
+  <si>
+    <t>2018-09-11 17:30:0</t>
+  </si>
+  <si>
+    <t>出访公示</t>
+  </si>
+  <si>
+    <t>出访公示1</t>
+  </si>
+  <si>
+    <t>2018-09-10 15:8:26</t>
+  </si>
+  <si>
+    <t>出访公示2、香港邀请函、中关村发展集团赴香港团组行程</t>
+  </si>
+  <si>
+    <t>2018-09-10 15:1:59</t>
+  </si>
+  <si>
+    <t>关于开展中关村发展集团理论学习中心组学习巡视旁听工作的通知</t>
+  </si>
+  <si>
+    <t>关于开展中关村发展集团理论学习中心组学习巡视旁听工作的通知、附件1：联络员信息、附件2：巡听时间表</t>
+  </si>
+  <si>
+    <t>2018-09-05 10:30:53</t>
+  </si>
+  <si>
+    <t>中关村发展集团关于进一步加强紧急重要信息报送工作的通知</t>
+  </si>
+  <si>
+    <t>2018-09-03 14:33:48</t>
+  </si>
+  <si>
+    <t>关于开展集团官网改版需求征集的通知</t>
+  </si>
+  <si>
+    <t>伍孟然</t>
+  </si>
+  <si>
+    <t>2018-08-31 10:19:8</t>
+  </si>
+  <si>
+    <t>出访公示3、集团赴美国团组行程、张哲 2018-9邀请函英文、张哲 2018-9邀请函中文</t>
+  </si>
+  <si>
+    <t>2018-08-29 15:27:51</t>
+  </si>
+  <si>
+    <t>关于开展隐性债务排查的通知</t>
+  </si>
+  <si>
+    <t>2018-08-27 15:34:50</t>
+  </si>
+  <si>
+    <t>出访公示4</t>
+  </si>
+  <si>
+    <t>2018-08-23 8:48:50</t>
+  </si>
+  <si>
+    <t>2018-08-16 9:45:22</t>
+  </si>
+  <si>
+    <t>关于开展海开集团副总经理岗位内部竞聘工作的通知</t>
+  </si>
+  <si>
+    <t>关于开展海开集团副总经理岗位内部竞聘工作的通知、附件1.海开集团公司简介、附件2.海开集团副总经理岗位职责及任职资格条件、附件3.报名申请表</t>
+  </si>
+  <si>
+    <t>吴峰</t>
+  </si>
+  <si>
+    <t>2018-08-08 15:4:41</t>
+  </si>
+  <si>
+    <t>集团办公室关于集团餐厅用餐管理有关工作的通知</t>
+  </si>
+  <si>
+    <t>孙笑海</t>
+  </si>
+  <si>
+    <t>2018-07-31 18:23:20</t>
+  </si>
+  <si>
+    <t>关于转发《中共北京市纪委办公厅 北京市监委办公厅关于市残联违规使用公车问题责任追究情况的通报》的通知</t>
+  </si>
+  <si>
+    <t>2018-07-26 15:16:56</t>
+  </si>
+  <si>
+    <t>干部任前公示通告</t>
+  </si>
+  <si>
+    <t>丁晓丽</t>
+  </si>
+  <si>
+    <t>2018-07-18 18:0:44</t>
+  </si>
+  <si>
+    <t>中关村发展集团关于办公地址变更有关事宜的通知</t>
+  </si>
+  <si>
+    <t>中关村发展集团总部新电话表</t>
+  </si>
+  <si>
+    <t>2018-07-16 14:15:10</t>
+  </si>
+  <si>
+    <t>关于启动公司律师申报核准工作的通知</t>
+  </si>
+  <si>
+    <t>公司律师申报人员情况表</t>
+  </si>
+  <si>
+    <t>赵桂平</t>
+  </si>
+  <si>
+    <t>2018-07-05 17:56:23</t>
+  </si>
+  <si>
+    <t>关于报送2018年上半年意识形态工作情况报告的通知</t>
+  </si>
+  <si>
+    <t>关于报送2018年上半年意识形态工作报告的通知</t>
+  </si>
+  <si>
+    <t>项鹏</t>
+  </si>
+  <si>
+    <t>2018-07-02 16:47:16</t>
+  </si>
+  <si>
+    <t>关于开展涉美合同、宣传事项填报的通知</t>
+  </si>
+  <si>
+    <t>表2、表3、表1</t>
+  </si>
+  <si>
+    <t>2018-07-02 11:12:47</t>
+  </si>
+  <si>
+    <t>关于做好2018年部门预算调整工作的通知</t>
+  </si>
+  <si>
+    <t>关于做好2018年部门预算调整工作的通知、预算调整明细表</t>
+  </si>
+  <si>
+    <t>2018-06-26 16:48:58</t>
+  </si>
+  <si>
+    <t>关于天津滨海中关村科技融资担保有限公司部分岗位选聘报名工作的通知</t>
+  </si>
+  <si>
+    <t>关于天津滨海中关村科技融资担保有限公司部分岗位选聘报名工作的通知、附件1担保天津子公司部分岗位职责及任职资格、附件2报名申请表</t>
+  </si>
+  <si>
+    <t>2018-06-15 16:55:12</t>
+  </si>
+  <si>
+    <t>关于做好2018端午假期集团安全生产工作的通知</t>
+  </si>
+  <si>
+    <t>2018-06-14 11:16:3</t>
+  </si>
+  <si>
+    <t>关于中关村发展集团工会第二次会员代表大会代表（职工代表大会代表）候选人名单的公示</t>
+  </si>
+  <si>
+    <t>党群工作部</t>
+  </si>
+  <si>
+    <t>李达亮</t>
+  </si>
+  <si>
+    <t>2018-05-31 16:19:31</t>
+  </si>
+  <si>
+    <t>集团关于开展“不忘初心、牢记使命”主题微视频征集活动的通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集团关于开展“不忘初心、牢记使命”主题微视频观摩交流活动的通知 </t>
+  </si>
+  <si>
+    <t>2018-05-18 12:55:23</t>
+  </si>
+  <si>
+    <t>关于开展涉外事项风险排查的通知</t>
+  </si>
+  <si>
+    <t>2018-05-10 15:49:59</t>
+  </si>
+  <si>
+    <t>关于集团信息化二期建设需求确认的通知</t>
+  </si>
+  <si>
+    <t>2018-05-02 17:34:42</t>
+  </si>
+  <si>
+    <t>关于2018年“五一”端午期间进一步纠正“四风”加强监督检查的通知</t>
+  </si>
+  <si>
+    <t>2018-04-27 17:58:13</t>
+  </si>
+  <si>
+    <t>关于开展集团信息化二期填报工作的通知</t>
+  </si>
+  <si>
+    <t>关于开展集团信息化二期填报工作的通知、表1 集团信息化项目组人员信息表、表2 集团管理目录数据采集表（样例）</t>
+  </si>
+  <si>
+    <t>2018-04-27 9:19:15</t>
+  </si>
+  <si>
+    <t>关于做好2018年五一放假期间集团安全生产工作的通知</t>
+  </si>
+  <si>
+    <t>刘国庆</t>
+  </si>
+  <si>
+    <t>2018-04-23 9:11:54</t>
+  </si>
+  <si>
+    <t>关于发布《中关村发展集团2018年度总经理特别奖预期奖励事项》的通知</t>
+  </si>
+  <si>
+    <t>安然</t>
+  </si>
+  <si>
+    <t>2018-04-20 12:15:35</t>
+  </si>
+  <si>
+    <t>中关村发展集团关于做好2018年国务院《政府工作报告》在线学习答题活动的通知</t>
+  </si>
+  <si>
+    <t>2018-04-19 10:22:51</t>
+  </si>
+  <si>
+    <t>关于印发《中关村发展集团2018年党风廉政建设工作任务分解表》的通知</t>
+  </si>
+  <si>
+    <t>2018-04-03 9:21:25</t>
+  </si>
+  <si>
+    <t>关于做好2018年“清明”期间集团有关工作的通知</t>
+  </si>
+  <si>
+    <t>2018-03-29 11:20:50</t>
+  </si>
+  <si>
+    <t>关于集团总部部分岗位面向子公司公开选聘事宜的通知</t>
+  </si>
+  <si>
+    <t>关于集团总部部分岗位面向子公司公开选聘事宜的通知、附件1 总部招聘岗位职责及任职资格20180321、附件2.报名申请表</t>
+  </si>
+  <si>
+    <t>2018-03-21 17:17:2</t>
+  </si>
+  <si>
+    <t>关于组织相关专业人才到雄安新区借调报名事宜的通知</t>
+  </si>
+  <si>
+    <t>关于组织相关专业人才到雄安新区借调报名事宜的通知、附件 报名申请表</t>
+  </si>
+  <si>
+    <t>林欣蔚</t>
+  </si>
+  <si>
+    <t>2018-03-15 12:29:8</t>
+  </si>
+  <si>
+    <t>2018年党风廉政建设工作会会议通知</t>
+  </si>
+  <si>
+    <t>2018-03-12 11:39:27</t>
+  </si>
+  <si>
+    <t>关于召开集团2018年工作会议的通知</t>
+  </si>
+  <si>
+    <t>2018-02-06 15:11:12</t>
+  </si>
+  <si>
+    <t>关于做好2018年“春节”期间集团有关工作的通知</t>
+  </si>
+  <si>
+    <t>2018-02-05 17:4:4</t>
+  </si>
+  <si>
+    <t>中关村发展集团关于2017年度总部机构、子公司负责人考核结果及总经理特别奖奖励事项的公示</t>
+  </si>
+  <si>
+    <t>2018-02-02 16:22:59</t>
+  </si>
+  <si>
+    <t>关于召开集团电子宣传册上线培训会的通知</t>
+  </si>
+  <si>
+    <t>张朴</t>
+  </si>
+  <si>
+    <t>2018-01-23 15:12:58</t>
+  </si>
+  <si>
+    <t>关于召开集团系统通讯员经验交流会的预通知</t>
+  </si>
+  <si>
+    <t>张一夫</t>
+  </si>
+  <si>
+    <t>2018-01-15 10:8:38</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-02 17:27:49 </t>
   </si>
   <si>
-    <t>通知公告</t>
+    <t xml:space="preserve">2018-11-07 20:37:24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-30 17:55:46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-29 18:21:24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-21 15:18:49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-20 10:20:27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-17 15:47:28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-12 15:29:58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-11 17:30:0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-10 15:8:26 </t>
   </si>
 </sst>
 </file>
@@ -121,9 +685,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -134,32 +698,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +720,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,31 +806,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,55 +842,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,13 +858,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,13 +906,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,43 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,19 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,79 +1026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,78 +1049,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,6 +1069,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -585,174 +1125,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,18 +1652,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A68" sqref="$A68:$XFD79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.125" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="54.375" customWidth="1"/>
+    <col min="5" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="3" customWidth="1"/>
     <col min="9" max="16381" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,13 +1691,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1175,10 +1756,10 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1248,7 +1829,3269 @@
         <v>27</v>
       </c>
     </row>
+    <row r="3" s="1" customFormat="1" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:9">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:9">
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:9">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:9">
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:9">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:9">
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:9">
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:9">
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:9">
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:9">
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:9">
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:9">
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:9">
+      <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" t="s">
+        <v>27</v>
+      </c>
+      <c r="X30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32" t="s">
+        <v>27</v>
+      </c>
+      <c r="X32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" t="s">
+        <v>27</v>
+      </c>
+      <c r="X33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" t="s">
+        <v>27</v>
+      </c>
+      <c r="X34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" t="s">
+        <v>27</v>
+      </c>
+      <c r="X35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" t="s">
+        <v>27</v>
+      </c>
+      <c r="X36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" t="s">
+        <v>27</v>
+      </c>
+      <c r="X37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" t="s">
+        <v>27</v>
+      </c>
+      <c r="S38" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" t="s">
+        <v>27</v>
+      </c>
+      <c r="U38" t="s">
+        <v>27</v>
+      </c>
+      <c r="V38" t="s">
+        <v>27</v>
+      </c>
+      <c r="W38" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" t="s">
+        <v>27</v>
+      </c>
+      <c r="S39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T39" t="s">
+        <v>27</v>
+      </c>
+      <c r="U39" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" t="s">
+        <v>27</v>
+      </c>
+      <c r="W39" t="s">
+        <v>27</v>
+      </c>
+      <c r="X39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R40" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" t="s">
+        <v>27</v>
+      </c>
+      <c r="T40" t="s">
+        <v>27</v>
+      </c>
+      <c r="U40" t="s">
+        <v>27</v>
+      </c>
+      <c r="V40" t="s">
+        <v>27</v>
+      </c>
+      <c r="W40" t="s">
+        <v>27</v>
+      </c>
+      <c r="X40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" t="s">
+        <v>27</v>
+      </c>
+      <c r="U41" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U42" t="s">
+        <v>27</v>
+      </c>
+      <c r="V42" t="s">
+        <v>27</v>
+      </c>
+      <c r="W42" t="s">
+        <v>27</v>
+      </c>
+      <c r="X42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43" t="s">
+        <v>27</v>
+      </c>
+      <c r="S43" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" t="s">
+        <v>27</v>
+      </c>
+      <c r="W43" t="s">
+        <v>27</v>
+      </c>
+      <c r="X43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" t="s">
+        <v>27</v>
+      </c>
+      <c r="U44" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" t="s">
+        <v>27</v>
+      </c>
+      <c r="W44" t="s">
+        <v>27</v>
+      </c>
+      <c r="X44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U45" t="s">
+        <v>27</v>
+      </c>
+      <c r="V45" t="s">
+        <v>27</v>
+      </c>
+      <c r="W45" t="s">
+        <v>27</v>
+      </c>
+      <c r="X45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>179</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:27">
+      <c r="A67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="2:9">
+      <c r="B68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="2:9">
+      <c r="B69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="2:9">
+      <c r="B70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="2:9">
+      <c r="B71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="2:9">
+      <c r="B72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="2:9">
+      <c r="B73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="2:9">
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="2:9">
+      <c r="B75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="2:9">
+      <c r="B76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="2:9">
+      <c r="B77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="2:9">
+      <c r="B78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="2:9">
+      <c r="B79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" display="关于集团总部2018-2019年度采暖季取暖补贴报销事宜的通知" tooltip="http://oa.zgcgroup.com.cn/portal/app/infscan/infodetail?nodecode=E32613&amp;infid=0001A61000000002CR0K&amp;inftype=1&amp;filesave=true&amp;filesaveas=true&amp;fileprint=false&amp;$portletWind=informationpublish_oainfdetail_pmng_MgrContentPortlet&amp;_h3ra=oa.zgcgroup.com.cn/portal&amp;$"/>
+    <hyperlink ref="C18" r:id="rId2" display="关于组织参加2018年中关村论坛的通知" tooltip="http://oa.zgcgroup.com.cn/portal/app/infscan/infodetail?nodecode=E32613&amp;infid=0001A61000000002C4OG&amp;inftype=1&amp;filesave=true&amp;filesaveas=true&amp;fileprint=true&amp;$portletWind=informationpublish_oainfdetail_pmng_MgrContentPortlet&amp;_h3ra=oa.zgcgroup.com.cn/portal&amp;$l"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
